--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.3151080321132</v>
+        <v>374.4033708596105</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.2726238939258</v>
+        <v>512.275209521095</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.9259032977505</v>
+        <v>463.3843825071731</v>
       </c>
       <c r="AD2" t="n">
-        <v>301315.1080321132</v>
+        <v>374403.3708596105</v>
       </c>
       <c r="AE2" t="n">
-        <v>412272.6238939258</v>
+        <v>512275.209521095</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.421147738986544e-06</v>
+        <v>2.629495394109327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.69010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>372925.9032977505</v>
+        <v>463384.3825071732</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.5503065751078</v>
+        <v>273.4180498843949</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.2396359162828</v>
+        <v>374.1026382048728</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.9171162780609</v>
+        <v>338.3988074709494</v>
       </c>
       <c r="AD3" t="n">
-        <v>224550.3065751078</v>
+        <v>273418.0498843949</v>
       </c>
       <c r="AE3" t="n">
-        <v>307239.6359162828</v>
+        <v>374102.6382048728</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.786489028476851e-06</v>
+        <v>3.3054724312876e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.509114583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>277917.1162780609</v>
+        <v>338398.8074709494</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.183453270662</v>
+        <v>245.9658557253741</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.7950998848008</v>
+        <v>336.5413350510111</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.0462342116753</v>
+        <v>304.4223023725732</v>
       </c>
       <c r="AD4" t="n">
-        <v>197183.453270662</v>
+        <v>245965.8557253741</v>
       </c>
       <c r="AE4" t="n">
-        <v>269795.0998848008</v>
+        <v>336541.3350510111</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.926981567541645e-06</v>
+        <v>3.565420411531404e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.884114583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>244046.2342116753</v>
+        <v>304422.3023725732</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.8747533030854</v>
+        <v>236.6571557577975</v>
       </c>
       <c r="AB5" t="n">
-        <v>257.0585259183101</v>
+        <v>323.8047610845204</v>
       </c>
       <c r="AC5" t="n">
-        <v>232.5252209886486</v>
+        <v>292.9012891495464</v>
       </c>
       <c r="AD5" t="n">
-        <v>187874.7533030854</v>
+        <v>236657.1557577975</v>
       </c>
       <c r="AE5" t="n">
-        <v>257058.5259183101</v>
+        <v>323804.7610845204</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.012341463763602e-06</v>
+        <v>3.723358567994537e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.552083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>232525.2209886486</v>
+        <v>292901.2891495464</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>182.9604049178928</v>
+        <v>231.5722151720126</v>
       </c>
       <c r="AB6" t="n">
-        <v>250.3344976519435</v>
+        <v>316.8473210433069</v>
       </c>
       <c r="AC6" t="n">
-        <v>226.4429245427889</v>
+        <v>286.6078574210357</v>
       </c>
       <c r="AD6" t="n">
-        <v>182960.4049178928</v>
+        <v>231572.2151720126</v>
       </c>
       <c r="AE6" t="n">
-        <v>250334.4976519435</v>
+        <v>316847.3210433069</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.045649796251633e-06</v>
+        <v>3.784987703699456e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.428385416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>226442.9245427889</v>
+        <v>286607.8574210357</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>177.5737007621478</v>
+        <v>226.1855110162676</v>
       </c>
       <c r="AB7" t="n">
-        <v>242.9641713814416</v>
+        <v>309.476994772805</v>
       </c>
       <c r="AC7" t="n">
-        <v>219.7760118672235</v>
+        <v>279.9409447454703</v>
       </c>
       <c r="AD7" t="n">
-        <v>177573.7007621478</v>
+        <v>226185.5110162676</v>
       </c>
       <c r="AE7" t="n">
-        <v>242964.1713814416</v>
+        <v>309476.994772805</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.077464272202009e-06</v>
+        <v>3.843852813696516e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.317708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>219776.0118672235</v>
+        <v>279940.9447454703</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>176.0571610783621</v>
+        <v>224.668971332482</v>
       </c>
       <c r="AB8" t="n">
-        <v>240.8891748810782</v>
+        <v>307.4019982724417</v>
       </c>
       <c r="AC8" t="n">
-        <v>217.8990501205783</v>
+        <v>278.0639829988251</v>
       </c>
       <c r="AD8" t="n">
-        <v>176057.1610783621</v>
+        <v>224668.971332482</v>
       </c>
       <c r="AE8" t="n">
-        <v>240889.1748810782</v>
+        <v>307401.9982724417</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.088201366066407e-06</v>
+        <v>3.863719248471754e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>217899.0501205783</v>
+        <v>278063.982998825</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.3518600475669</v>
+        <v>305.1704207111562</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.0694831939441</v>
+        <v>417.5476327857839</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.9000447980052</v>
+        <v>377.6974727444912</v>
       </c>
       <c r="AD2" t="n">
-        <v>246351.8600475669</v>
+        <v>305170.4207111562</v>
       </c>
       <c r="AE2" t="n">
-        <v>337069.483193944</v>
+        <v>417547.6327857839</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.634063649726654e-06</v>
+        <v>3.114777505341574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.622395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>304900.0447980053</v>
+        <v>377697.4727444912</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.3591308807414</v>
+        <v>245.0070098351836</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.9847844555178</v>
+        <v>335.2293998027579</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.6493945005501</v>
+        <v>303.2355763831002</v>
       </c>
       <c r="AD3" t="n">
-        <v>186359.1308807414</v>
+        <v>245007.0098351836</v>
       </c>
       <c r="AE3" t="n">
-        <v>254984.7844555178</v>
+        <v>335229.3998027579</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.974239032779705e-06</v>
+        <v>3.763204285523509e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.962239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>230649.3945005501</v>
+        <v>303235.5763831002</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.1100623805212</v>
+        <v>220.9943187107973</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.2250685427616</v>
+        <v>302.374176441223</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.4892023520929</v>
+        <v>273.516009426584</v>
       </c>
       <c r="AD4" t="n">
-        <v>174110.0623805212</v>
+        <v>220994.3187107973</v>
       </c>
       <c r="AE4" t="n">
-        <v>238225.0685427616</v>
+        <v>302374.176441223</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.104171154884224e-06</v>
+        <v>4.010874962990786e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.473958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>215489.202352093</v>
+        <v>273516.0094265841</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.9519888577444</v>
+        <v>213.8362451880205</v>
       </c>
       <c r="AB5" t="n">
-        <v>228.431076556987</v>
+        <v>292.5801844554484</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.6299352154834</v>
+        <v>264.6567422899746</v>
       </c>
       <c r="AD5" t="n">
-        <v>166951.9888577444</v>
+        <v>213836.2451880205</v>
       </c>
       <c r="AE5" t="n">
-        <v>228431.076556987</v>
+        <v>292580.1844554484</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.159901193504784e-06</v>
+        <v>4.117105017552108e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>206629.9352154834</v>
+        <v>264656.7422899746</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>163.8295555411353</v>
+        <v>199.1207814478376</v>
       </c>
       <c r="AB6" t="n">
-        <v>224.1588255411686</v>
+        <v>272.4458377656983</v>
       </c>
       <c r="AC6" t="n">
-        <v>202.7654218404715</v>
+        <v>246.4439893895547</v>
       </c>
       <c r="AD6" t="n">
-        <v>163829.5555411353</v>
+        <v>199120.7814478376</v>
       </c>
       <c r="AE6" t="n">
-        <v>224158.8255411686</v>
+        <v>272445.8377656983</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.179001046428901e-06</v>
+        <v>4.15351228495159e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>202765.4218404715</v>
+        <v>246443.9893895547</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.6925591517467</v>
+        <v>182.5463291165096</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.5017663489819</v>
+        <v>249.7679408727563</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.1296679466154</v>
+        <v>225.9304391474397</v>
       </c>
       <c r="AD2" t="n">
-        <v>140692.5591517467</v>
+        <v>182546.3291165096</v>
       </c>
       <c r="AE2" t="n">
-        <v>192501.7663489819</v>
+        <v>249767.9408727563</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.332240163396779e-06</v>
+        <v>4.967061193940959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.51953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>174129.6679466154</v>
+        <v>225930.4391474397</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.8588668983795</v>
+        <v>165.2492838805027</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.1516071267049</v>
+        <v>226.101360489084</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.6718747974786</v>
+        <v>204.5225639793234</v>
       </c>
       <c r="AD3" t="n">
-        <v>133858.8668983795</v>
+        <v>165249.2838805027</v>
       </c>
       <c r="AE3" t="n">
-        <v>183151.6071267049</v>
+        <v>226101.360489084</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.445566358561312e-06</v>
+        <v>5.20841633184361e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>165671.8747974786</v>
+        <v>204522.5639793234</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.3429646208157</v>
+        <v>222.1448974595959</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.0167121303969</v>
+        <v>303.9484490452804</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.728099604349</v>
+        <v>274.9400356628162</v>
       </c>
       <c r="AD2" t="n">
-        <v>178342.9646208157</v>
+        <v>222144.8974595959</v>
       </c>
       <c r="AE2" t="n">
-        <v>244016.7121303969</v>
+        <v>303948.4490452804</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.052266104314179e-06</v>
+        <v>4.166809725129417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>220728.099604349</v>
+        <v>274940.0356628163</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.8432659650379</v>
+        <v>179.7587436121895</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.9174347609565</v>
+        <v>245.9538434061545</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.7421567768186</v>
+        <v>222.4803537899298</v>
       </c>
       <c r="AD3" t="n">
-        <v>146843.2659650379</v>
+        <v>179758.7436121895</v>
       </c>
       <c r="AE3" t="n">
-        <v>200917.4347609565</v>
+        <v>245953.8434061545</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.330831752651532e-06</v>
+        <v>4.732394300218888e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.200520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>181742.1567768186</v>
+        <v>222480.3537899298</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.7738523138321</v>
+        <v>177.6893299609838</v>
       </c>
       <c r="AB4" t="n">
-        <v>198.0859717072913</v>
+        <v>243.1223803524892</v>
       </c>
       <c r="AC4" t="n">
-        <v>179.1809245830109</v>
+        <v>219.9191215961221</v>
       </c>
       <c r="AD4" t="n">
-        <v>144773.8523138321</v>
+        <v>177689.3299609838</v>
       </c>
       <c r="AE4" t="n">
-        <v>198085.9717072913</v>
+        <v>243122.3803524892</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.353463439450846e-06</v>
+        <v>4.778344448912194e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.12890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>179180.9245830109</v>
+        <v>219919.1215961221</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.2305305913889</v>
+        <v>165.2458915787701</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.3459367361538</v>
+        <v>226.0967189921957</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.9929210196355</v>
+        <v>204.5183654603837</v>
       </c>
       <c r="AD2" t="n">
-        <v>125230.5305913889</v>
+        <v>165245.8915787701</v>
       </c>
       <c r="AE2" t="n">
-        <v>171345.9367361538</v>
+        <v>226096.7189921957</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.495992274115206e-06</v>
+        <v>5.558087267157026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.298177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>154992.9210196355</v>
+        <v>204518.3654603837</v>
       </c>
     </row>
   </sheetData>
@@ -5465,28 +5465,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.6940236142624</v>
+        <v>315.0801752522248</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.8518435330591</v>
+        <v>431.1065961363892</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.4624746065146</v>
+        <v>389.9623876630394</v>
       </c>
       <c r="AD2" t="n">
-        <v>255694.0236142624</v>
+        <v>315080.1752522248</v>
       </c>
       <c r="AE2" t="n">
-        <v>349851.8435330591</v>
+        <v>431106.5961363892</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.582270228868686e-06</v>
+        <v>2.991699062688439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>316462.4746065146</v>
+        <v>389962.3876630394</v>
       </c>
     </row>
     <row r="3">
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.7974847899179</v>
+        <v>252.221154754264</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.212953716805</v>
+        <v>345.1001111466508</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.469822695506</v>
+        <v>312.1642408899653</v>
       </c>
       <c r="AD3" t="n">
-        <v>204797.4847899179</v>
+        <v>252221.154754264</v>
       </c>
       <c r="AE3" t="n">
-        <v>280212.953716805</v>
+        <v>345100.1111466507</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.924080034215776e-06</v>
+        <v>3.637980624217758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.098958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>253469.822695506</v>
+        <v>312164.2408899653</v>
       </c>
     </row>
     <row r="4">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.4512993053646</v>
+        <v>227.9602206157313</v>
       </c>
       <c r="AB4" t="n">
-        <v>246.901428658957</v>
+        <v>311.9052307414519</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.3375028361493</v>
+        <v>282.1374332813209</v>
       </c>
       <c r="AD4" t="n">
-        <v>180451.2993053646</v>
+        <v>227960.2206157313</v>
       </c>
       <c r="AE4" t="n">
-        <v>246901.428658957</v>
+        <v>311905.2307414519</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.050069156671141e-06</v>
+        <v>3.876196279598035e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.59765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>223337.5028361493</v>
+        <v>282137.4332813209</v>
       </c>
     </row>
     <row r="5">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>173.0385332344763</v>
+        <v>220.3768623442508</v>
       </c>
       <c r="AB5" t="n">
-        <v>236.7589550926141</v>
+        <v>301.5293454002623</v>
       </c>
       <c r="AC5" t="n">
-        <v>214.163012711924</v>
+        <v>272.7518078744445</v>
       </c>
       <c r="AD5" t="n">
-        <v>173038.5332344763</v>
+        <v>220376.8623442508</v>
       </c>
       <c r="AE5" t="n">
-        <v>236758.9550926141</v>
+        <v>301529.3454002623</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.114535385710981e-06</v>
+        <v>3.99808668331968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>214163.012711924</v>
+        <v>272751.8078744445</v>
       </c>
     </row>
     <row r="6">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>167.0372684022383</v>
+        <v>202.6690488935644</v>
       </c>
       <c r="AB6" t="n">
-        <v>228.5477597920314</v>
+        <v>277.300733823451</v>
       </c>
       <c r="AC6" t="n">
-        <v>206.7354823663412</v>
+        <v>250.8355409814465</v>
       </c>
       <c r="AD6" t="n">
-        <v>167037.2684022383</v>
+        <v>202669.0488935644</v>
       </c>
       <c r="AE6" t="n">
-        <v>228547.7597920314</v>
+        <v>277300.733823451</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.156077098262265e-06</v>
+        <v>4.076632244144022e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>206735.4823663412</v>
+        <v>250835.5409814465</v>
       </c>
     </row>
     <row r="7">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>167.421308772642</v>
+        <v>203.0530892639681</v>
       </c>
       <c r="AB7" t="n">
-        <v>229.073220769483</v>
+        <v>277.8261948009025</v>
       </c>
       <c r="AC7" t="n">
-        <v>207.2107940855941</v>
+        <v>251.3108527006993</v>
       </c>
       <c r="AD7" t="n">
-        <v>167421.308772642</v>
+        <v>203053.0892639681</v>
       </c>
       <c r="AE7" t="n">
-        <v>229073.220769483</v>
+        <v>277826.1948009025</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.154856690808282e-06</v>
+        <v>4.074324742069114e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>207210.7940855941</v>
+        <v>251310.8527006993</v>
       </c>
     </row>
   </sheetData>
@@ -6292,28 +6292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.7451396644299</v>
+        <v>159.7729034030322</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.2088269884096</v>
+        <v>218.6083351189573</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.4415284127265</v>
+        <v>197.744662433992</v>
       </c>
       <c r="AD2" t="n">
-        <v>120745.1396644299</v>
+        <v>159772.9034030322</v>
       </c>
       <c r="AE2" t="n">
-        <v>165208.8269884096</v>
+        <v>218608.3351189573</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.503979105432649e-06</v>
+        <v>5.740539235263224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>149441.5284127264</v>
+        <v>197744.662433992</v>
       </c>
     </row>
   </sheetData>
@@ -6589,28 +6589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.5537799744115</v>
+        <v>262.4448924531274</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.2477501536175</v>
+        <v>359.088680105873</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.4058596127353</v>
+        <v>324.8177604606955</v>
       </c>
       <c r="AD2" t="n">
-        <v>205553.7799744115</v>
+        <v>262444.8924531274</v>
       </c>
       <c r="AE2" t="n">
-        <v>281247.7501536175</v>
+        <v>359088.680105873</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.825348692151545e-06</v>
+        <v>3.577658210418244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.873697916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>254405.8596127353</v>
+        <v>324817.7604606955</v>
       </c>
     </row>
     <row r="3">
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.3202445427854</v>
+        <v>212.9014072094127</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.934940231554</v>
+        <v>291.3010978909769</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.0857108481271</v>
+        <v>263.4997299520066</v>
       </c>
       <c r="AD3" t="n">
-        <v>167320.2445427854</v>
+        <v>212901.4072094127</v>
       </c>
       <c r="AE3" t="n">
-        <v>228934.940231554</v>
+        <v>291301.0978909769</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.134462068008258e-06</v>
+        <v>4.183516155170894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.591145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>207085.7108481271</v>
+        <v>263499.7299520066</v>
       </c>
     </row>
     <row r="4">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.4839021455653</v>
+        <v>189.6698636540868</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.7399343811128</v>
+        <v>259.5146750952284</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.4363336262134</v>
+        <v>234.7469587353496</v>
       </c>
       <c r="AD4" t="n">
-        <v>155483.9021455653</v>
+        <v>189669.8636540868</v>
       </c>
       <c r="AE4" t="n">
-        <v>212739.9343811127</v>
+        <v>259514.6750952284</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.262361614509616e-06</v>
+        <v>4.43419749875024e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>192436.3336262134</v>
+        <v>234746.9587353496</v>
       </c>
     </row>
     <row r="5">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.3047788471715</v>
+        <v>188.4907403556931</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.1266058650027</v>
+        <v>257.9013465791183</v>
       </c>
       <c r="AC5" t="n">
-        <v>190.9769789193595</v>
+        <v>233.2876040284957</v>
       </c>
       <c r="AD5" t="n">
-        <v>154304.7788471715</v>
+        <v>188490.7403556931</v>
       </c>
       <c r="AE5" t="n">
-        <v>211126.6058650027</v>
+        <v>257901.3465791183</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.27146708698958e-06</v>
+        <v>4.45204409897394e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.12890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>190976.9789193595</v>
+        <v>233287.6040284957</v>
       </c>
     </row>
   </sheetData>
@@ -7204,28 +7204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.1789376324199</v>
+        <v>293.2377317618535</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.7821978309987</v>
+        <v>401.2208013322653</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.0717564942548</v>
+        <v>362.9288511700446</v>
       </c>
       <c r="AD2" t="n">
-        <v>235178.9376324199</v>
+        <v>293237.7317618534</v>
       </c>
       <c r="AE2" t="n">
-        <v>321782.1978309987</v>
+        <v>401220.8013322653</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.702943314210756e-06</v>
+        <v>3.274254357406423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.31640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>291071.7564942548</v>
+        <v>362928.8511700446</v>
       </c>
     </row>
     <row r="3">
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.5078993420299</v>
+        <v>227.0914084060475</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.9788713261397</v>
+        <v>310.7164835468736</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.4075544838677</v>
+        <v>281.0621384505756</v>
       </c>
       <c r="AD3" t="n">
-        <v>180507.8993420299</v>
+        <v>227091.4084060476</v>
       </c>
       <c r="AE3" t="n">
-        <v>246978.8713261397</v>
+        <v>310716.4835468736</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.018756396843869e-06</v>
+        <v>3.881469144480335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.858072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>223407.5544838677</v>
+        <v>281062.1384505756</v>
       </c>
     </row>
     <row r="4">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.4950180485634</v>
+        <v>214.9079349119889</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.5423171695079</v>
+        <v>294.046517615395</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.5396819870909</v>
+        <v>265.9831306711478</v>
       </c>
       <c r="AD4" t="n">
-        <v>168495.0180485634</v>
+        <v>214907.9349119889</v>
       </c>
       <c r="AE4" t="n">
-        <v>230542.3171695079</v>
+        <v>294046.517615395</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.14928889587909e-06</v>
+        <v>4.132444382577031e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.3828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>208539.6819870909</v>
+        <v>265983.1306711478</v>
       </c>
     </row>
     <row r="5">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.3787166331068</v>
+        <v>196.3164379396711</v>
       </c>
       <c r="AB5" t="n">
-        <v>220.8054796238241</v>
+        <v>268.6088112589229</v>
       </c>
       <c r="AC5" t="n">
-        <v>199.7321145510267</v>
+        <v>242.9731633072843</v>
       </c>
       <c r="AD5" t="n">
-        <v>161378.7166331068</v>
+        <v>196316.4379396711</v>
       </c>
       <c r="AE5" t="n">
-        <v>220805.4796238241</v>
+        <v>268608.8112589229</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.203695719006375e-06</v>
+        <v>4.237052549044225e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.200520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>199732.1145510267</v>
+        <v>242973.1633072843</v>
       </c>
     </row>
     <row r="6">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.6343625216149</v>
+        <v>195.5720838281792</v>
       </c>
       <c r="AB6" t="n">
-        <v>219.7870214898955</v>
+        <v>267.5903531249943</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.810856631985</v>
+        <v>242.0519053882426</v>
       </c>
       <c r="AD6" t="n">
-        <v>160634.3625216149</v>
+        <v>195572.0838281792</v>
       </c>
       <c r="AE6" t="n">
-        <v>219787.0214898955</v>
+        <v>267590.3531249943</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.214859843106867e-06</v>
+        <v>4.258517844851562e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.16796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>198810.8566319851</v>
+        <v>242051.9053882426</v>
       </c>
     </row>
   </sheetData>
@@ -7925,28 +7925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.5504743335531</v>
+        <v>349.9295001843802</v>
       </c>
       <c r="AB2" t="n">
-        <v>396.1757330485476</v>
+        <v>478.7889799522729</v>
       </c>
       <c r="AC2" t="n">
-        <v>358.3652771225271</v>
+        <v>433.094031690181</v>
       </c>
       <c r="AD2" t="n">
-        <v>289550.4743335531</v>
+        <v>349929.5001843802</v>
       </c>
       <c r="AE2" t="n">
-        <v>396175.7330485476</v>
+        <v>478788.9799522729</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.47281208244175e-06</v>
+        <v>2.743737202058955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.40364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>358365.2771225271</v>
+        <v>433094.031690181</v>
       </c>
     </row>
     <row r="3">
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.5055760407246</v>
+        <v>265.7917464521849</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.600724807568</v>
+        <v>363.6679934001612</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.1981293172621</v>
+        <v>328.9600305212834</v>
       </c>
       <c r="AD3" t="n">
-        <v>217505.5760407246</v>
+        <v>265791.7464521849</v>
       </c>
       <c r="AE3" t="n">
-        <v>297600.724807568</v>
+        <v>363667.9934001612</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.833991964827182e-06</v>
+        <v>3.416587928740431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.352864583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>269198.1293172621</v>
+        <v>328960.0305212834</v>
       </c>
     </row>
     <row r="4">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.5171891739371</v>
+        <v>239.8886109314146</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.0422673697363</v>
+        <v>328.2261806148019</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.0333211506773</v>
+        <v>296.9007346053605</v>
       </c>
       <c r="AD4" t="n">
-        <v>191517.1891739371</v>
+        <v>239888.6109314146</v>
       </c>
       <c r="AE4" t="n">
-        <v>262042.2673697363</v>
+        <v>328226.1806148019</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.966643399710191e-06</v>
+        <v>3.663707490790471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.786458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>237033.3211506773</v>
+        <v>296900.7346053605</v>
       </c>
     </row>
     <row r="5">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>181.6815695256727</v>
+        <v>229.882399082558</v>
       </c>
       <c r="AB5" t="n">
-        <v>248.5847386500732</v>
+        <v>314.5352401202919</v>
       </c>
       <c r="AC5" t="n">
-        <v>224.8601600842543</v>
+        <v>284.5164382562866</v>
       </c>
       <c r="AD5" t="n">
-        <v>181681.5695256727</v>
+        <v>229882.399082558</v>
       </c>
       <c r="AE5" t="n">
-        <v>248584.7386500732</v>
+        <v>314535.2401202919</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.057697151572065e-06</v>
+        <v>3.833333724407649e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.44140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>224860.1600842543</v>
+        <v>284516.4382562866</v>
       </c>
     </row>
     <row r="6">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>177.2404723876293</v>
+        <v>225.4413019445146</v>
       </c>
       <c r="AB6" t="n">
-        <v>242.5082336184274</v>
+        <v>308.4587350886462</v>
       </c>
       <c r="AC6" t="n">
-        <v>219.3635881643985</v>
+        <v>279.0198663364308</v>
       </c>
       <c r="AD6" t="n">
-        <v>177240.4723876293</v>
+        <v>225441.3019445146</v>
       </c>
       <c r="AE6" t="n">
-        <v>242508.2336184274</v>
+        <v>308458.7350886462</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.086142625990929e-06</v>
+        <v>3.886325485762474e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH6" t="n">
-        <v>219363.5881643986</v>
+        <v>279019.8663364308</v>
       </c>
     </row>
     <row r="7">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>173.2200577141373</v>
+        <v>221.4208872710225</v>
       </c>
       <c r="AB7" t="n">
-        <v>237.0073248939809</v>
+        <v>302.9578263641996</v>
       </c>
       <c r="AC7" t="n">
-        <v>214.3876784480376</v>
+        <v>274.0439566200698</v>
       </c>
       <c r="AD7" t="n">
-        <v>173220.0577141372</v>
+        <v>221420.8872710225</v>
       </c>
       <c r="AE7" t="n">
-        <v>237007.3248939809</v>
+        <v>302957.8263641996</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.105623893831144e-06</v>
+        <v>3.922617610164288e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>214387.6784480376</v>
+        <v>274043.9566200698</v>
       </c>
     </row>
     <row r="8">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>173.4060647362236</v>
+        <v>221.6068942931089</v>
       </c>
       <c r="AB8" t="n">
-        <v>237.26182790765</v>
+        <v>303.2123293778687</v>
       </c>
       <c r="AC8" t="n">
-        <v>214.6178920512794</v>
+        <v>274.2741702233116</v>
       </c>
       <c r="AD8" t="n">
-        <v>173406.0647362235</v>
+        <v>221606.8942931089</v>
       </c>
       <c r="AE8" t="n">
-        <v>237261.82790765</v>
+        <v>303212.3293778687</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.105694478134913e-06</v>
+        <v>3.922749103368643e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>214617.8920512794</v>
+        <v>274274.1702233116</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.1176370741877</v>
+        <v>231.5143196846027</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.022606092322</v>
+        <v>316.768105883264</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.5881678969299</v>
+        <v>286.5362024446881</v>
       </c>
       <c r="AD2" t="n">
-        <v>187117.6370741877</v>
+        <v>231514.3196846027</v>
       </c>
       <c r="AE2" t="n">
-        <v>256022.606092322</v>
+        <v>316768.105883264</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.97498630278068e-06</v>
+        <v>3.958854820014712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.391927083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>231588.1678969299</v>
+        <v>286536.2024446881</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.1587665808136</v>
+        <v>198.470108336657</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.9268254405654</v>
+        <v>271.5555581093097</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.7962652582368</v>
+        <v>245.6386767740563</v>
       </c>
       <c r="AD3" t="n">
-        <v>154158.7665808137</v>
+        <v>198470.108336657</v>
       </c>
       <c r="AE3" t="n">
-        <v>210926.8254405654</v>
+        <v>271555.5581093098</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.256378134014204e-06</v>
+        <v>4.522904001430888e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>190796.2652582368</v>
+        <v>245638.6767740563</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.164167753786</v>
+        <v>181.5257077296637</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.7247508623949</v>
+        <v>248.3714816646367</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.3769851661204</v>
+        <v>224.6672560461998</v>
       </c>
       <c r="AD4" t="n">
-        <v>148164.167753786</v>
+        <v>181525.7077296637</v>
       </c>
       <c r="AE4" t="n">
-        <v>202724.7508623949</v>
+        <v>248371.4816646367</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.321132617836735e-06</v>
+        <v>4.652704192975236e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.141927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>183376.9851661204</v>
+        <v>224667.2560461998</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.581376955912</v>
+        <v>192.1623729833996</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.6638390156</v>
+        <v>262.9250363213433</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.1310094675115</v>
+        <v>237.8318398725173</v>
       </c>
       <c r="AD2" t="n">
-        <v>149581.376955912</v>
+        <v>192162.3729833996</v>
       </c>
       <c r="AE2" t="n">
-        <v>204663.8390156</v>
+        <v>262925.0363213433</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.234211827961551e-06</v>
+        <v>4.674110867049281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.727864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>185131.0094675116</v>
+        <v>237831.8398725173</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.4358249720945</v>
+        <v>169.3716615012612</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.0457589674123</v>
+        <v>231.7417794162681</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.0989356554957</v>
+        <v>209.6246692404765</v>
       </c>
       <c r="AD3" t="n">
-        <v>137435.8249720945</v>
+        <v>169371.6615012612</v>
       </c>
       <c r="AE3" t="n">
-        <v>188045.7589674123</v>
+        <v>231741.7794162681</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.410824438163439e-06</v>
+        <v>5.043595492576378e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>170098.9356554957</v>
+        <v>209624.6692404766</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.2579175942476</v>
+        <v>172.1488662052309</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.5928735430086</v>
+        <v>235.5416734138618</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.4527817522952</v>
+        <v>213.0619066881259</v>
       </c>
       <c r="AD2" t="n">
-        <v>131257.9175942476</v>
+        <v>172148.8662052309</v>
       </c>
       <c r="AE2" t="n">
-        <v>179592.8735430086</v>
+        <v>235541.6734138618</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.446189669466544e-06</v>
+        <v>5.317663527134003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.298177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>162452.7817522952</v>
+        <v>213061.9066881259</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.9334180414901</v>
+        <v>160.7296631587226</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.7806348221303</v>
+        <v>219.9174160259538</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.8135005514439</v>
+        <v>198.9288064965318</v>
       </c>
       <c r="AD3" t="n">
-        <v>129933.41804149</v>
+        <v>160729.6631587227</v>
       </c>
       <c r="AE3" t="n">
-        <v>177780.6348221303</v>
+        <v>219917.4160259538</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.468214318005346e-06</v>
+        <v>5.365541936439147e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.233072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>160813.5005514439</v>
+        <v>198928.8064965318</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.4727686384497</v>
+        <v>153.5222780026114</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.9949363500735</v>
+        <v>210.0559536879752</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.9161213721518</v>
+        <v>190.0085082834375</v>
       </c>
       <c r="AD2" t="n">
-        <v>115472.7686384497</v>
+        <v>153522.2780026114</v>
       </c>
       <c r="AE2" t="n">
-        <v>157994.9363500735</v>
+        <v>210055.9536879752</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.481700346670668e-06</v>
+        <v>5.902791189940726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>142916.1213721518</v>
+        <v>190008.5082834375</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.4548900092583</v>
+        <v>272.5480047224265</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.8455709951771</v>
+        <v>372.9122040305841</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.2743445704793</v>
+        <v>337.3219866634699</v>
       </c>
       <c r="AD2" t="n">
-        <v>226454.8900092583</v>
+        <v>272548.0047224265</v>
       </c>
       <c r="AE2" t="n">
-        <v>309845.5709951771</v>
+        <v>372912.2040305841</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.759358858199602e-06</v>
+        <v>3.414173437381783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.108072916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>280274.3445704793</v>
+        <v>337321.9866634699</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.657943404426</v>
+        <v>219.7509686090397</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.6064594135871</v>
+        <v>300.6729699792639</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.9296324099833</v>
+        <v>271.9771637216956</v>
       </c>
       <c r="AD3" t="n">
-        <v>173657.943404426</v>
+        <v>219750.9686090397</v>
       </c>
       <c r="AE3" t="n">
-        <v>237606.4594135871</v>
+        <v>300672.969979264</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.07711832509551e-06</v>
+        <v>4.030810530091111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.71484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>214929.6324099833</v>
+        <v>271977.1637216956</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.2250375890033</v>
+        <v>208.1474705930248</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.9634532927266</v>
+        <v>284.7965520835567</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.7795728381958</v>
+        <v>257.6159688672571</v>
       </c>
       <c r="AD4" t="n">
-        <v>162225.0375890033</v>
+        <v>208147.4705930248</v>
       </c>
       <c r="AE4" t="n">
-        <v>221963.4532927266</v>
+        <v>284796.5520835567</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.200706496151329e-06</v>
+        <v>4.270643040000526e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.28515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>200779.5728381958</v>
+        <v>257615.9688672571</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>157.3129157137535</v>
+        <v>191.8827741257649</v>
       </c>
       <c r="AB5" t="n">
-        <v>215.2424714354905</v>
+        <v>262.5424768292966</v>
       </c>
       <c r="AC5" t="n">
-        <v>194.7000320564549</v>
+        <v>237.4857913214657</v>
       </c>
       <c r="AD5" t="n">
-        <v>157312.9157137535</v>
+        <v>191882.7741257648</v>
       </c>
       <c r="AE5" t="n">
-        <v>215242.4714354905</v>
+        <v>262542.4768292966</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.242017442571979e-06</v>
+        <v>4.350810161838773e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.1484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>194700.0320564549</v>
+        <v>237485.7913214657</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.3063981505479</v>
+        <v>338.1553003251497</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.7910919613285</v>
+        <v>462.6790002638362</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.4489245881927</v>
+        <v>418.5215658527102</v>
       </c>
       <c r="AD2" t="n">
-        <v>278306.3981505479</v>
+        <v>338155.3003251497</v>
       </c>
       <c r="AE2" t="n">
-        <v>380791.0919613285</v>
+        <v>462679.0002638362</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.526674213634603e-06</v>
+        <v>2.864639631051602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.1171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>344448.9245881927</v>
+        <v>418521.5658527102</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.5470775396055</v>
+        <v>259.4091490100854</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.4480442879395</v>
+        <v>354.9350419995544</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.8235291840654</v>
+        <v>321.0605397455763</v>
       </c>
       <c r="AD3" t="n">
-        <v>211547.0775396055</v>
+        <v>259409.1490100854</v>
       </c>
       <c r="AE3" t="n">
-        <v>289448.0442879394</v>
+        <v>354935.0419995544</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.873516223258824e-06</v>
+        <v>3.515451282685963e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.2421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>261823.5291840654</v>
+        <v>321060.5397455763</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.0998182187776</v>
+        <v>234.0471410352749</v>
       </c>
       <c r="AB4" t="n">
-        <v>254.629981431352</v>
+        <v>320.2336237954438</v>
       </c>
       <c r="AC4" t="n">
-        <v>230.3284533790414</v>
+        <v>289.6709761912155</v>
       </c>
       <c r="AD4" t="n">
-        <v>186099.8182187777</v>
+        <v>234047.1410352749</v>
       </c>
       <c r="AE4" t="n">
-        <v>254629.981431352</v>
+        <v>320233.6237954438</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.007508266374939e-06</v>
+        <v>3.766872911169607e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.6953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>230328.4533790414</v>
+        <v>289670.9761912155</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.9241971504782</v>
+        <v>226.7009277663832</v>
       </c>
       <c r="AB5" t="n">
-        <v>244.8119801196502</v>
+        <v>310.1822107088952</v>
       </c>
       <c r="AC5" t="n">
-        <v>221.4474683328739</v>
+        <v>280.578855862397</v>
       </c>
       <c r="AD5" t="n">
-        <v>178924.1971504782</v>
+        <v>226700.9277663832</v>
       </c>
       <c r="AE5" t="n">
-        <v>244811.9801196502</v>
+        <v>310182.2107088952</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.068525889408694e-06</v>
+        <v>3.881365904877102e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.467447916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>221447.4683328739</v>
+        <v>280578.855862397</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>171.4391531993336</v>
+        <v>207.3997348202576</v>
       </c>
       <c r="AB6" t="n">
-        <v>234.5706127688657</v>
+        <v>283.773467011483</v>
       </c>
       <c r="AC6" t="n">
-        <v>212.1835227081957</v>
+        <v>256.6905255985528</v>
       </c>
       <c r="AD6" t="n">
-        <v>171439.1531993336</v>
+        <v>207399.7348202576</v>
       </c>
       <c r="AE6" t="n">
-        <v>234570.6127688657</v>
+        <v>283773.467011483</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.128333598455387e-06</v>
+        <v>3.993588625381222e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.259114583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>212183.5227081957</v>
+        <v>256690.5255985528</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>169.8801969905894</v>
+        <v>205.8407786115134</v>
       </c>
       <c r="AB7" t="n">
-        <v>232.437580107769</v>
+        <v>281.6404343503863</v>
       </c>
       <c r="AC7" t="n">
-        <v>210.2540636905432</v>
+        <v>254.7610665809003</v>
       </c>
       <c r="AD7" t="n">
-        <v>169880.1969905894</v>
+        <v>205840.7786115134</v>
       </c>
       <c r="AE7" t="n">
-        <v>232437.580107769</v>
+        <v>281640.4343503863</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.135521910966752e-06</v>
+        <v>4.007076719118924e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.233072916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>210254.0636905432</v>
+        <v>254761.0665809003</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.5905200603588</v>
+        <v>155.1460405672713</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.2607813910128</v>
+        <v>212.2776572642904</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.7748401495363</v>
+        <v>192.0181755886103</v>
       </c>
       <c r="AD2" t="n">
-        <v>118590.5200603588</v>
+        <v>155146.0405672713</v>
       </c>
       <c r="AE2" t="n">
-        <v>162260.7813910127</v>
+        <v>212277.6572642903</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.372271856782571e-06</v>
+        <v>5.932871883213015e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.365885416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>146774.8401495363</v>
+        <v>192018.1755886103</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.3582812229019</v>
+        <v>212.2573343854725</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.6727866433779</v>
+        <v>290.4198490387747</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.993839988362</v>
+        <v>262.7025862534178</v>
       </c>
       <c r="AD2" t="n">
-        <v>158358.2812229019</v>
+        <v>212257.3343854725</v>
       </c>
       <c r="AE2" t="n">
-        <v>216672.7866433779</v>
+        <v>290419.8490387747</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.142074602602755e-06</v>
+        <v>4.41113879519704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.942708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>195993.839988362</v>
+        <v>262702.5862534178</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.0479526276731</v>
+        <v>173.4898830592524</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.9880313815978</v>
+        <v>237.3765118350214</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.5695245269958</v>
+        <v>214.7216307055824</v>
       </c>
       <c r="AD3" t="n">
-        <v>141047.952627673</v>
+        <v>173489.8830592524</v>
       </c>
       <c r="AE3" t="n">
-        <v>192988.0313815978</v>
+        <v>237376.5118350214</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.386057485105493e-06</v>
+        <v>4.913568709199162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.12890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>174569.5245269958</v>
+        <v>214721.6307055824</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.3568315656607</v>
+        <v>173.7987619972401</v>
       </c>
       <c r="AB4" t="n">
-        <v>193.4106531713294</v>
+        <v>237.799133624753</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.951811886269</v>
+        <v>215.1039180648556</v>
       </c>
       <c r="AD4" t="n">
-        <v>141356.8315656607</v>
+        <v>173798.7619972401</v>
       </c>
       <c r="AE4" t="n">
-        <v>193410.6531713294</v>
+        <v>237799.133624753</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.383523073068358e-06</v>
+        <v>4.908349636415031e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>174951.811886269</v>
+        <v>215103.9180648556</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.9395755861995</v>
+        <v>252.1607713754949</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.0931715609096</v>
+        <v>345.0174919438921</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.5067355383444</v>
+        <v>312.0895067479613</v>
       </c>
       <c r="AD2" t="n">
-        <v>195939.5755861995</v>
+        <v>252160.7713754949</v>
       </c>
       <c r="AE2" t="n">
-        <v>268093.1715609097</v>
+        <v>345017.4919438921</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.902444397143412e-06</v>
+        <v>3.769092613170788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.606770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>242506.7355383444</v>
+        <v>312089.5067479613</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.852897627373</v>
+        <v>205.7275347418745</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.0860308626822</v>
+        <v>281.4854890919794</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.0813289698953</v>
+        <v>254.6209090804888</v>
       </c>
       <c r="AD3" t="n">
-        <v>160852.8976273731</v>
+        <v>205727.5347418745</v>
       </c>
       <c r="AE3" t="n">
-        <v>220086.0308626822</v>
+        <v>281485.4890919795</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.19392261563285e-06</v>
+        <v>4.346564628572826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.467447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>199081.3289698953</v>
+        <v>254620.9090804888</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.3994177911925</v>
+        <v>185.1834292860637</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.1513626927306</v>
+        <v>253.376137665387</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.381127376159</v>
+        <v>229.1942747023189</v>
       </c>
       <c r="AD4" t="n">
-        <v>151399.4177911925</v>
+        <v>185183.4292860637</v>
       </c>
       <c r="AE4" t="n">
-        <v>207151.3626927306</v>
+        <v>253376.137665387</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.293891066506849e-06</v>
+        <v>4.544620535123935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.141927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>187381.127376159</v>
+        <v>229194.2747023189</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.5089890838128</v>
+        <v>185.2930005786841</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.3012829692379</v>
+        <v>253.5260579418943</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.5167394718909</v>
+        <v>229.3298867980508</v>
       </c>
       <c r="AD5" t="n">
-        <v>151508.9890838128</v>
+        <v>185293.0005786841</v>
       </c>
       <c r="AE5" t="n">
-        <v>207301.2829692379</v>
+        <v>253526.0579418943</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.290973014090799e-06</v>
+        <v>4.538839336039907e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.1484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>187516.7394718909</v>
+        <v>229329.8867980508</v>
       </c>
     </row>
   </sheetData>
